--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_MCPS_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_MCPS_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.422288114603784</v>
+        <v>-1.221066362194925</v>
       </c>
       <c r="D2">
-        <v>0.1551283710312534</v>
+        <v>0.2349861455002353</v>
       </c>
       <c r="E2">
         <v>0.5700720406207305</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.1839931494574755</v>
+        <v>0.1659878138695713</v>
       </c>
       <c r="D3">
-        <v>0.8540410471558846</v>
+        <v>0.8696825269947404</v>
       </c>
       <c r="E3">
         <v>0.5700720406207305</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.3763057403290144</v>
+        <v>-0.4076334686602358</v>
       </c>
       <c r="D4">
-        <v>0.7067371568156147</v>
+        <v>0.6874823318318857</v>
       </c>
       <c r="E4">
         <v>0.5700720406207305</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.03960511631505812</v>
+        <v>-0.04005864555531555</v>
       </c>
       <c r="D5">
-        <v>0.9684126569741851</v>
+        <v>0.9684076859375383</v>
       </c>
       <c r="E5">
         <v>0.5700720406207305</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.563199614406618</v>
+        <v>1.190858081340474</v>
       </c>
       <c r="D6">
-        <v>0.1181941001657549</v>
+        <v>0.2464000520199752</v>
       </c>
       <c r="E6">
         <v>0.6015304660903775</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.066918167371461</v>
+        <v>1.088535489911793</v>
       </c>
       <c r="D7">
-        <v>0.2861621753415517</v>
+        <v>0.2881401356405855</v>
       </c>
       <c r="E7">
         <v>0.6015304660903775</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.63628651858522</v>
+        <v>1.568383225484835</v>
       </c>
       <c r="D8">
-        <v>0.1019670536441082</v>
+        <v>0.1310638319071515</v>
       </c>
       <c r="E8">
         <v>0.6015304660903775</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.5653445505887145</v>
+        <v>-0.4900606732739369</v>
       </c>
       <c r="D9">
-        <v>0.5719149661916068</v>
+        <v>0.628942557726103</v>
       </c>
       <c r="E9">
         <v>0.566638548095583</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.2200549131333475</v>
+        <v>-0.1627367419473806</v>
       </c>
       <c r="D10">
-        <v>0.825855139739982</v>
+        <v>0.8722112651880236</v>
       </c>
       <c r="E10">
         <v>0.566638548095583</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.3642016967035239</v>
+        <v>0.3253140268527125</v>
       </c>
       <c r="D11">
-        <v>0.7157532591635412</v>
+        <v>0.7480170426688049</v>
       </c>
       <c r="E11">
         <v>0.5780012027589597</v>
